--- a/biology/Histoire de la zoologie et de la botanique/Gustave_Henri_Bonati/Gustave_Henri_Bonati.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gustave_Henri_Bonati/Gustave_Henri_Bonati.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gustave Henri Bonati est un botaniste français né le 21 novembre 1873 à Strasbourg (Empire allemand) et mort le 2 février 1927 à Lure (Haute-Saône).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gustave Bonati est né le 21 novembre 1873 à Strasbourg, alors annexée par l'Empire allemand. Ses parents émigrent très peu de temps après en France et s'établissent à Conflans (Haute-Saône). Son père, pharmacien, l'initie à la botanique.
 Après des études de pharmacie, il s'établit d'abord à Vagney (Vosges) puis à Lure (Haute-Saône). En 1918, il passe son doctorat à l'université de Nancy en soutenant la thèse : « Le genre Pedicularis. Morphologie. Classification. Distribution géographique. Évolution et hybrides». Il travaille beaucoup sur les herbiers des missionnaires collecteurs en Chine (en particulier celui du P. Bodinier). Il procède aussi à des classements d'espèces de l'herbier Boissier, notamment celles des Scrophulariacées.
@@ -545,7 +559,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Contribution à l'étude du genre Pedicularis, historique et classification.
 Le genre Pedicularis, morphologie, classification,distribution géographique, évolution et hybridation.
@@ -578,7 +594,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>De nombreuses espèces lui ont été dédiées :
 Adiantum bonatianum Brause (1914) - Adiantacée de Chine (Yunnan)
